--- a/data/scenarios.xlsx
+++ b/data/scenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corinneriddell/Documents/repos/TWFE-simulation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corinneriddell/Documents/repos/Guide-to-DID-estimators/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0827C056-C2D5-2D44-9B3C-8F0939EBD115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C571FE-CEA4-0042-A9A6-474130E756BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36200" yWindow="500" windowWidth="30240" windowHeight="18880" activeTab="8" xr2:uid="{3A84A3DE-CD8F-5C4B-BB69-5AB88BC02DD1}"/>
+    <workbookView xWindow="-47300" yWindow="1220" windowWidth="26860" windowHeight="18780" activeTab="8" xr2:uid="{3A84A3DE-CD8F-5C4B-BB69-5AB88BC02DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="scen1" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,7 @@
     <sheet name="scen5" sheetId="7" r:id="rId7"/>
     <sheet name="scen6" sheetId="9" r:id="rId8"/>
     <sheet name="scen7" sheetId="10" r:id="rId9"/>
-    <sheet name="scen8_OLD" sheetId="11" r:id="rId10"/>
-    <sheet name="scen8" sheetId="12" r:id="rId11"/>
+    <sheet name="scen8" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="10">
   <si>
     <t>state</t>
   </si>
@@ -68,13 +67,19 @@
   <si>
     <t>time_first_trt_date</t>
   </si>
+  <si>
+    <t>counterfactual_outcome_if_no_treatment</t>
+  </si>
+  <si>
+    <t>causal_effect</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -92,7 +97,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +128,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -136,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -145,7 +156,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,6 +173,156 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2844800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA3AE9F4-7BCF-3403-3D12-105BE5219811}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11861800" y="228600"/>
+          <a:ext cx="2819400" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>The shaded columns I and J would not be included in real datasets. They are shown here for teaching purposes to illustrate how the causal effect is calculated for treated states. Scroll down to the rows where states 3 and 4 have introduced the policy to see how their causal effect is calculated. </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EEB7D59-8F47-6844-A0A8-79A8397BCF84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11620500" y="190500"/>
+          <a:ext cx="2819400" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>The shaded columns I and J would not be included in real datasets. They are shown here for teaching purposes to illustrate how the causal effect is calculated for treated states. Scroll down to the rows where states 3 and 4 have introduced the policy to see how their causal effect is calculated. </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,2860 +706,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50393CDB-34CE-664D-AD69-D5281AE8E4F8}">
-  <dimension ref="A1:F161"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>27</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>33</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>36</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>42</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>45</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>48</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>51</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>54</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>57</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>60</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>63</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>66</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <f>D21+3</f>
-        <v>69</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" ref="D23:D31" si="0">D22+3</f>
-        <v>72</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3">
-        <v>23</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>1</v>
-      </c>
-      <c r="B25" s="3">
-        <v>24</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3">
-        <v>25</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>1</v>
-      </c>
-      <c r="B27" s="3">
-        <v>26</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>1</v>
-      </c>
-      <c r="B28" s="3">
-        <v>27</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>1</v>
-      </c>
-      <c r="B29" s="3">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>1</v>
-      </c>
-      <c r="B30" s="3">
-        <v>29</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>1</v>
-      </c>
-      <c r="B31" s="3">
-        <v>30</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>2</v>
-      </c>
-      <c r="B32" s="4">
-        <v>1</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0</v>
-      </c>
-      <c r="D32" s="4">
-        <f>D2+1</f>
-        <v>10</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>2</v>
-      </c>
-      <c r="B33" s="4">
-        <v>2</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0</v>
-      </c>
-      <c r="D33" s="4">
-        <f t="shared" ref="D33:D41" si="1">D3+1</f>
-        <v>13</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>2</v>
-      </c>
-      <c r="B34" s="4">
-        <v>3</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0</v>
-      </c>
-      <c r="D34" s="4">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>2</v>
-      </c>
-      <c r="B35" s="4">
-        <v>4</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>2</v>
-      </c>
-      <c r="B36" s="4">
-        <v>5</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>2</v>
-      </c>
-      <c r="B37" s="4">
-        <v>6</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0</v>
-      </c>
-      <c r="D37" s="4">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>2</v>
-      </c>
-      <c r="B38" s="4">
-        <v>7</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>2</v>
-      </c>
-      <c r="B39" s="4">
-        <v>8</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0</v>
-      </c>
-      <c r="D39" s="4">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>2</v>
-      </c>
-      <c r="B40" s="4">
-        <v>9</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0</v>
-      </c>
-      <c r="D40" s="4">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>2</v>
-      </c>
-      <c r="B41" s="4">
-        <v>10</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0</v>
-      </c>
-      <c r="D41" s="4">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>2</v>
-      </c>
-      <c r="B42" s="4">
-        <v>11</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0</v>
-      </c>
-      <c r="D42" s="4">
-        <f t="shared" ref="D42:D61" si="2">D12+1</f>
-        <v>40</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>2</v>
-      </c>
-      <c r="B43" s="4">
-        <v>12</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0</v>
-      </c>
-      <c r="D43" s="4">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>2</v>
-      </c>
-      <c r="B44" s="4">
-        <v>13</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0</v>
-      </c>
-      <c r="D44" s="4">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="E44" s="4">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>2</v>
-      </c>
-      <c r="B45" s="4">
-        <v>14</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0</v>
-      </c>
-      <c r="D45" s="4">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="E45" s="4">
-        <v>0</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>2</v>
-      </c>
-      <c r="B46" s="4">
-        <v>15</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0</v>
-      </c>
-      <c r="D46" s="4">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="E46" s="4">
-        <v>0</v>
-      </c>
-      <c r="F46" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>2</v>
-      </c>
-      <c r="B47" s="4">
-        <v>16</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>2</v>
-      </c>
-      <c r="B48" s="4">
-        <v>17</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0</v>
-      </c>
-      <c r="D48" s="4">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="E48" s="4">
-        <v>0</v>
-      </c>
-      <c r="F48" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>2</v>
-      </c>
-      <c r="B49" s="4">
-        <v>18</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0</v>
-      </c>
-      <c r="D49" s="4">
-        <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="E49" s="4">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>2</v>
-      </c>
-      <c r="B50" s="4">
-        <v>19</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0</v>
-      </c>
-      <c r="D50" s="4">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="E50" s="4">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>2</v>
-      </c>
-      <c r="B51" s="4">
-        <v>20</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0</v>
-      </c>
-      <c r="D51" s="4">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>2</v>
-      </c>
-      <c r="B52" s="4">
-        <v>21</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0</v>
-      </c>
-      <c r="D52" s="4">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="E52" s="4">
-        <v>0</v>
-      </c>
-      <c r="F52" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>2</v>
-      </c>
-      <c r="B53" s="4">
-        <v>22</v>
-      </c>
-      <c r="C53" s="4">
-        <v>0</v>
-      </c>
-      <c r="D53" s="4">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="E53" s="4">
-        <v>0</v>
-      </c>
-      <c r="F53" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>2</v>
-      </c>
-      <c r="B54" s="4">
-        <v>23</v>
-      </c>
-      <c r="C54" s="4">
-        <v>0</v>
-      </c>
-      <c r="D54" s="4">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="E54" s="4">
-        <v>0</v>
-      </c>
-      <c r="F54" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>2</v>
-      </c>
-      <c r="B55" s="4">
-        <v>24</v>
-      </c>
-      <c r="C55" s="4">
-        <v>0</v>
-      </c>
-      <c r="D55" s="4">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="E55" s="4">
-        <v>0</v>
-      </c>
-      <c r="F55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>2</v>
-      </c>
-      <c r="B56" s="4">
-        <v>25</v>
-      </c>
-      <c r="C56" s="4">
-        <v>0</v>
-      </c>
-      <c r="D56" s="4">
-        <f t="shared" si="2"/>
-        <v>82</v>
-      </c>
-      <c r="E56" s="4">
-        <v>0</v>
-      </c>
-      <c r="F56" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
-        <v>2</v>
-      </c>
-      <c r="B57" s="4">
-        <v>26</v>
-      </c>
-      <c r="C57" s="4">
-        <v>0</v>
-      </c>
-      <c r="D57" s="4">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
-        <v>2</v>
-      </c>
-      <c r="B58" s="4">
-        <v>27</v>
-      </c>
-      <c r="C58" s="4">
-        <v>0</v>
-      </c>
-      <c r="D58" s="4">
-        <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="E58" s="4">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <v>2</v>
-      </c>
-      <c r="B59" s="4">
-        <v>28</v>
-      </c>
-      <c r="C59" s="4">
-        <v>0</v>
-      </c>
-      <c r="D59" s="4">
-        <f t="shared" si="2"/>
-        <v>91</v>
-      </c>
-      <c r="E59" s="4">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <v>2</v>
-      </c>
-      <c r="B60" s="4">
-        <v>29</v>
-      </c>
-      <c r="C60" s="4">
-        <v>0</v>
-      </c>
-      <c r="D60" s="4">
-        <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="E60" s="4">
-        <v>0</v>
-      </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
-        <v>2</v>
-      </c>
-      <c r="B61" s="4">
-        <v>30</v>
-      </c>
-      <c r="C61" s="4">
-        <v>0</v>
-      </c>
-      <c r="D61" s="4">
-        <f t="shared" si="2"/>
-        <v>97</v>
-      </c>
-      <c r="E61" s="4">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
-        <v>3</v>
-      </c>
-      <c r="B62" s="5">
-        <v>1</v>
-      </c>
-      <c r="C62" s="5">
-        <v>0</v>
-      </c>
-      <c r="D62" s="5">
-        <f>D32+2</f>
-        <v>12</v>
-      </c>
-      <c r="E62" s="5">
-        <v>0</v>
-      </c>
-      <c r="F62" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
-        <v>3</v>
-      </c>
-      <c r="B63" s="5">
-        <v>2</v>
-      </c>
-      <c r="C63" s="5">
-        <v>0</v>
-      </c>
-      <c r="D63" s="5">
-        <f t="shared" ref="D63:D71" si="3">D33+2</f>
-        <v>15</v>
-      </c>
-      <c r="E63" s="5">
-        <v>0</v>
-      </c>
-      <c r="F63" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
-        <v>3</v>
-      </c>
-      <c r="B64" s="5">
-        <v>3</v>
-      </c>
-      <c r="C64" s="5">
-        <v>0</v>
-      </c>
-      <c r="D64" s="5">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="E64" s="5">
-        <v>0</v>
-      </c>
-      <c r="F64" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
-        <v>3</v>
-      </c>
-      <c r="B65" s="5">
-        <v>4</v>
-      </c>
-      <c r="C65" s="5">
-        <v>0</v>
-      </c>
-      <c r="D65" s="5">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="E65" s="5">
-        <v>0</v>
-      </c>
-      <c r="F65" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
-        <v>3</v>
-      </c>
-      <c r="B66" s="5">
-        <v>5</v>
-      </c>
-      <c r="C66" s="5">
-        <v>0</v>
-      </c>
-      <c r="D66" s="5">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="E66" s="5">
-        <v>0</v>
-      </c>
-      <c r="F66" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
-        <v>3</v>
-      </c>
-      <c r="B67" s="5">
-        <v>6</v>
-      </c>
-      <c r="C67" s="5">
-        <v>0</v>
-      </c>
-      <c r="D67" s="5">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="E67" s="5">
-        <v>0</v>
-      </c>
-      <c r="F67" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
-        <v>3</v>
-      </c>
-      <c r="B68" s="5">
-        <v>7</v>
-      </c>
-      <c r="C68" s="5">
-        <v>0</v>
-      </c>
-      <c r="D68" s="5">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="E68" s="5">
-        <v>0</v>
-      </c>
-      <c r="F68" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
-        <v>3</v>
-      </c>
-      <c r="B69" s="5">
-        <v>8</v>
-      </c>
-      <c r="C69" s="5">
-        <v>0</v>
-      </c>
-      <c r="D69" s="5">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="E69" s="5">
-        <v>0</v>
-      </c>
-      <c r="F69" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
-        <v>3</v>
-      </c>
-      <c r="B70" s="5">
-        <v>9</v>
-      </c>
-      <c r="C70" s="5">
-        <v>0</v>
-      </c>
-      <c r="D70" s="5">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="E70" s="5">
-        <v>0</v>
-      </c>
-      <c r="F70" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
-        <v>3</v>
-      </c>
-      <c r="B71" s="5">
-        <v>10</v>
-      </c>
-      <c r="C71" s="5">
-        <v>0</v>
-      </c>
-      <c r="D71" s="5">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="E71" s="5">
-        <v>0</v>
-      </c>
-      <c r="F71" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
-        <v>3</v>
-      </c>
-      <c r="B72" s="5">
-        <v>11</v>
-      </c>
-      <c r="C72" s="5">
-        <v>0</v>
-      </c>
-      <c r="D72" s="5">
-        <f>D42+2</f>
-        <v>42</v>
-      </c>
-      <c r="E72" s="5">
-        <v>0</v>
-      </c>
-      <c r="F72" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
-        <v>3</v>
-      </c>
-      <c r="B73" s="5">
-        <v>12</v>
-      </c>
-      <c r="C73" s="5">
-        <v>0</v>
-      </c>
-      <c r="D73" s="5">
-        <f t="shared" ref="D73:D75" si="4">D43+2</f>
-        <v>45</v>
-      </c>
-      <c r="E73" s="5">
-        <v>0</v>
-      </c>
-      <c r="F73" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
-        <v>3</v>
-      </c>
-      <c r="B74" s="5">
-        <v>13</v>
-      </c>
-      <c r="C74" s="5">
-        <v>0</v>
-      </c>
-      <c r="D74" s="5">
-        <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="E74" s="5">
-        <v>0</v>
-      </c>
-      <c r="F74" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
-        <v>3</v>
-      </c>
-      <c r="B75" s="5">
-        <v>14</v>
-      </c>
-      <c r="C75" s="5">
-        <v>0</v>
-      </c>
-      <c r="D75" s="5">
-        <f t="shared" si="4"/>
-        <v>51</v>
-      </c>
-      <c r="E75" s="5">
-        <v>0</v>
-      </c>
-      <c r="F75" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
-        <v>3</v>
-      </c>
-      <c r="B76" s="5">
-        <v>15</v>
-      </c>
-      <c r="C76" s="5">
-        <v>1</v>
-      </c>
-      <c r="D76" s="5">
-        <f>D46+5</f>
-        <v>57</v>
-      </c>
-      <c r="E76" s="5">
-        <v>1</v>
-      </c>
-      <c r="F76" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
-        <v>3</v>
-      </c>
-      <c r="B77" s="5">
-        <v>16</v>
-      </c>
-      <c r="C77" s="5">
-        <v>1</v>
-      </c>
-      <c r="D77" s="5">
-        <f>D47+7</f>
-        <v>62</v>
-      </c>
-      <c r="E77" s="5">
-        <v>2</v>
-      </c>
-      <c r="F77" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
-        <v>3</v>
-      </c>
-      <c r="B78" s="5">
-        <v>17</v>
-      </c>
-      <c r="C78" s="5">
-        <v>1</v>
-      </c>
-      <c r="D78" s="5">
-        <f>D48+9</f>
-        <v>67</v>
-      </c>
-      <c r="E78" s="5">
-        <v>3</v>
-      </c>
-      <c r="F78" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
-        <v>3</v>
-      </c>
-      <c r="B79" s="5">
-        <v>18</v>
-      </c>
-      <c r="C79" s="5">
-        <v>1</v>
-      </c>
-      <c r="D79" s="5">
-        <f>D49+11</f>
-        <v>72</v>
-      </c>
-      <c r="E79" s="5">
-        <v>4</v>
-      </c>
-      <c r="F79" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
-        <v>3</v>
-      </c>
-      <c r="B80" s="5">
-        <v>19</v>
-      </c>
-      <c r="C80" s="5">
-        <v>1</v>
-      </c>
-      <c r="D80" s="5">
-        <f>D50+13</f>
-        <v>77</v>
-      </c>
-      <c r="E80" s="5">
-        <v>5</v>
-      </c>
-      <c r="F80" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
-        <v>3</v>
-      </c>
-      <c r="B81" s="5">
-        <v>20</v>
-      </c>
-      <c r="C81" s="5">
-        <v>1</v>
-      </c>
-      <c r="D81" s="5">
-        <f>D51+15</f>
-        <v>82</v>
-      </c>
-      <c r="E81" s="5">
-        <v>6</v>
-      </c>
-      <c r="F81" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
-        <v>3</v>
-      </c>
-      <c r="B82" s="5">
-        <v>21</v>
-      </c>
-      <c r="C82" s="5">
-        <v>1</v>
-      </c>
-      <c r="D82" s="5">
-        <f>D52+17</f>
-        <v>87</v>
-      </c>
-      <c r="E82" s="5">
-        <v>7</v>
-      </c>
-      <c r="F82" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
-        <v>3</v>
-      </c>
-      <c r="B83" s="5">
-        <v>22</v>
-      </c>
-      <c r="C83" s="5">
-        <v>1</v>
-      </c>
-      <c r="D83" s="5">
-        <f>D53+19</f>
-        <v>92</v>
-      </c>
-      <c r="E83" s="5">
-        <v>8</v>
-      </c>
-      <c r="F83" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
-        <v>3</v>
-      </c>
-      <c r="B84" s="5">
-        <v>23</v>
-      </c>
-      <c r="C84" s="5">
-        <v>1</v>
-      </c>
-      <c r="D84" s="5">
-        <f>D54+21</f>
-        <v>97</v>
-      </c>
-      <c r="E84" s="5">
-        <v>9</v>
-      </c>
-      <c r="F84" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
-        <v>3</v>
-      </c>
-      <c r="B85" s="5">
-        <v>24</v>
-      </c>
-      <c r="C85" s="5">
-        <v>1</v>
-      </c>
-      <c r="D85" s="5">
-        <f>D55+23</f>
-        <v>102</v>
-      </c>
-      <c r="E85" s="5">
-        <v>10</v>
-      </c>
-      <c r="F85" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="5">
-        <v>3</v>
-      </c>
-      <c r="B86" s="5">
-        <v>25</v>
-      </c>
-      <c r="C86" s="5">
-        <v>1</v>
-      </c>
-      <c r="D86" s="5">
-        <f>D56+25</f>
-        <v>107</v>
-      </c>
-      <c r="E86" s="5">
-        <v>11</v>
-      </c>
-      <c r="F86" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="5">
-        <v>3</v>
-      </c>
-      <c r="B87" s="5">
-        <v>26</v>
-      </c>
-      <c r="C87" s="5">
-        <v>1</v>
-      </c>
-      <c r="D87" s="5">
-        <f>D57+27</f>
-        <v>112</v>
-      </c>
-      <c r="E87" s="5">
-        <v>12</v>
-      </c>
-      <c r="F87" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
-        <v>3</v>
-      </c>
-      <c r="B88" s="5">
-        <v>27</v>
-      </c>
-      <c r="C88" s="5">
-        <v>1</v>
-      </c>
-      <c r="D88" s="5">
-        <f>D58+29</f>
-        <v>117</v>
-      </c>
-      <c r="E88" s="5">
-        <v>13</v>
-      </c>
-      <c r="F88" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="5">
-        <v>3</v>
-      </c>
-      <c r="B89" s="5">
-        <v>28</v>
-      </c>
-      <c r="C89" s="5">
-        <v>1</v>
-      </c>
-      <c r="D89" s="5">
-        <f>D59+31</f>
-        <v>122</v>
-      </c>
-      <c r="E89" s="5">
-        <v>14</v>
-      </c>
-      <c r="F89" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="5">
-        <v>3</v>
-      </c>
-      <c r="B90" s="5">
-        <v>29</v>
-      </c>
-      <c r="C90" s="5">
-        <v>1</v>
-      </c>
-      <c r="D90" s="5">
-        <f>D60+33</f>
-        <v>127</v>
-      </c>
-      <c r="E90" s="5">
-        <v>15</v>
-      </c>
-      <c r="F90" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
-        <v>3</v>
-      </c>
-      <c r="B91" s="5">
-        <v>30</v>
-      </c>
-      <c r="C91" s="5">
-        <v>1</v>
-      </c>
-      <c r="D91" s="5">
-        <f>D61+35</f>
-        <v>132</v>
-      </c>
-      <c r="E91" s="5">
-        <v>16</v>
-      </c>
-      <c r="F91" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="6">
-        <v>4</v>
-      </c>
-      <c r="B92" s="6">
-        <v>1</v>
-      </c>
-      <c r="C92" s="6">
-        <v>0</v>
-      </c>
-      <c r="D92" s="6">
-        <f>D32+8</f>
-        <v>18</v>
-      </c>
-      <c r="E92" s="6">
-        <v>0</v>
-      </c>
-      <c r="F92" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="6">
-        <v>4</v>
-      </c>
-      <c r="B93" s="6">
-        <v>2</v>
-      </c>
-      <c r="C93" s="6">
-        <v>0</v>
-      </c>
-      <c r="D93" s="6">
-        <f t="shared" ref="D93:D101" si="5">D33+8</f>
-        <v>21</v>
-      </c>
-      <c r="E93" s="6">
-        <v>0</v>
-      </c>
-      <c r="F93" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="6">
-        <v>4</v>
-      </c>
-      <c r="B94" s="6">
-        <v>3</v>
-      </c>
-      <c r="C94" s="6">
-        <v>0</v>
-      </c>
-      <c r="D94" s="6">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="E94" s="6">
-        <v>0</v>
-      </c>
-      <c r="F94" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="6">
-        <v>4</v>
-      </c>
-      <c r="B95" s="6">
-        <v>4</v>
-      </c>
-      <c r="C95" s="6">
-        <v>0</v>
-      </c>
-      <c r="D95" s="6">
-        <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="E95" s="6">
-        <v>0</v>
-      </c>
-      <c r="F95" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="6">
-        <v>4</v>
-      </c>
-      <c r="B96" s="6">
-        <v>5</v>
-      </c>
-      <c r="C96" s="6">
-        <v>0</v>
-      </c>
-      <c r="D96" s="6">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="E96" s="6">
-        <v>0</v>
-      </c>
-      <c r="F96" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="6">
-        <v>4</v>
-      </c>
-      <c r="B97" s="6">
-        <v>6</v>
-      </c>
-      <c r="C97" s="6">
-        <v>0</v>
-      </c>
-      <c r="D97" s="6">
-        <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="E97" s="6">
-        <v>0</v>
-      </c>
-      <c r="F97" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="6">
-        <v>4</v>
-      </c>
-      <c r="B98" s="6">
-        <v>7</v>
-      </c>
-      <c r="C98" s="6">
-        <v>0</v>
-      </c>
-      <c r="D98" s="6">
-        <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
-      <c r="E98" s="6">
-        <v>0</v>
-      </c>
-      <c r="F98" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="6">
-        <v>4</v>
-      </c>
-      <c r="B99" s="6">
-        <v>8</v>
-      </c>
-      <c r="C99" s="6">
-        <v>0</v>
-      </c>
-      <c r="D99" s="6">
-        <f t="shared" si="5"/>
-        <v>39</v>
-      </c>
-      <c r="E99" s="6">
-        <v>0</v>
-      </c>
-      <c r="F99" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="6">
-        <v>4</v>
-      </c>
-      <c r="B100" s="6">
-        <v>9</v>
-      </c>
-      <c r="C100" s="6">
-        <v>0</v>
-      </c>
-      <c r="D100" s="6">
-        <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-      <c r="E100" s="6">
-        <v>0</v>
-      </c>
-      <c r="F100" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="6">
-        <v>4</v>
-      </c>
-      <c r="B101" s="6">
-        <v>10</v>
-      </c>
-      <c r="C101" s="6">
-        <v>0</v>
-      </c>
-      <c r="D101" s="6">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="E101" s="6">
-        <v>0</v>
-      </c>
-      <c r="F101" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="6">
-        <v>4</v>
-      </c>
-      <c r="B102" s="6">
-        <v>11</v>
-      </c>
-      <c r="C102" s="6">
-        <v>0</v>
-      </c>
-      <c r="D102" s="6">
-        <f>D42+8</f>
-        <v>48</v>
-      </c>
-      <c r="E102" s="6">
-        <v>0</v>
-      </c>
-      <c r="F102" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="6">
-        <v>4</v>
-      </c>
-      <c r="B103" s="6">
-        <v>12</v>
-      </c>
-      <c r="C103" s="6">
-        <v>0</v>
-      </c>
-      <c r="D103" s="6">
-        <f t="shared" ref="D103:D112" si="6">D43+8</f>
-        <v>51</v>
-      </c>
-      <c r="E103" s="6">
-        <v>0</v>
-      </c>
-      <c r="F103" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="6">
-        <v>4</v>
-      </c>
-      <c r="B104" s="6">
-        <v>13</v>
-      </c>
-      <c r="C104" s="6">
-        <v>0</v>
-      </c>
-      <c r="D104" s="6">
-        <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="E104" s="6">
-        <v>0</v>
-      </c>
-      <c r="F104" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="6">
-        <v>4</v>
-      </c>
-      <c r="B105" s="6">
-        <v>14</v>
-      </c>
-      <c r="C105" s="6">
-        <v>0</v>
-      </c>
-      <c r="D105" s="6">
-        <f t="shared" si="6"/>
-        <v>57</v>
-      </c>
-      <c r="E105" s="6">
-        <v>0</v>
-      </c>
-      <c r="F105" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="6">
-        <v>4</v>
-      </c>
-      <c r="B106" s="6">
-        <v>15</v>
-      </c>
-      <c r="C106" s="6">
-        <v>0</v>
-      </c>
-      <c r="D106" s="6">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="E106" s="6">
-        <v>0</v>
-      </c>
-      <c r="F106" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="6">
-        <v>4</v>
-      </c>
-      <c r="B107" s="6">
-        <v>16</v>
-      </c>
-      <c r="C107" s="6">
-        <v>0</v>
-      </c>
-      <c r="D107" s="6">
-        <f t="shared" si="6"/>
-        <v>63</v>
-      </c>
-      <c r="E107" s="6">
-        <v>0</v>
-      </c>
-      <c r="F107" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="6">
-        <v>4</v>
-      </c>
-      <c r="B108" s="6">
-        <v>17</v>
-      </c>
-      <c r="C108" s="6">
-        <v>0</v>
-      </c>
-      <c r="D108" s="6">
-        <f t="shared" si="6"/>
-        <v>66</v>
-      </c>
-      <c r="E108" s="6">
-        <v>0</v>
-      </c>
-      <c r="F108" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="6">
-        <v>4</v>
-      </c>
-      <c r="B109" s="6">
-        <v>18</v>
-      </c>
-      <c r="C109" s="6">
-        <v>0</v>
-      </c>
-      <c r="D109" s="6">
-        <f t="shared" si="6"/>
-        <v>69</v>
-      </c>
-      <c r="E109" s="6">
-        <v>0</v>
-      </c>
-      <c r="F109" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="6">
-        <v>4</v>
-      </c>
-      <c r="B110" s="6">
-        <v>19</v>
-      </c>
-      <c r="C110" s="6">
-        <v>0</v>
-      </c>
-      <c r="D110" s="6">
-        <f t="shared" si="6"/>
-        <v>72</v>
-      </c>
-      <c r="E110" s="6">
-        <v>0</v>
-      </c>
-      <c r="F110" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="6">
-        <v>4</v>
-      </c>
-      <c r="B111" s="6">
-        <v>20</v>
-      </c>
-      <c r="C111" s="6">
-        <v>0</v>
-      </c>
-      <c r="D111" s="6">
-        <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="E111" s="6">
-        <v>0</v>
-      </c>
-      <c r="F111" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="6">
-        <v>4</v>
-      </c>
-      <c r="B112" s="6">
-        <v>21</v>
-      </c>
-      <c r="C112" s="6">
-        <v>0</v>
-      </c>
-      <c r="D112" s="6">
-        <f t="shared" si="6"/>
-        <v>78</v>
-      </c>
-      <c r="E112" s="6">
-        <v>0</v>
-      </c>
-      <c r="F112" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="6">
-        <v>4</v>
-      </c>
-      <c r="B113" s="6">
-        <v>22</v>
-      </c>
-      <c r="C113" s="6">
-        <v>1</v>
-      </c>
-      <c r="D113" s="6">
-        <f>D53+9</f>
-        <v>82</v>
-      </c>
-      <c r="E113" s="6">
-        <v>1</v>
-      </c>
-      <c r="F113" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="6">
-        <v>4</v>
-      </c>
-      <c r="B114" s="6">
-        <v>23</v>
-      </c>
-      <c r="C114" s="6">
-        <v>1</v>
-      </c>
-      <c r="D114" s="6">
-        <f>D54+10</f>
-        <v>86</v>
-      </c>
-      <c r="E114" s="6">
-        <v>2</v>
-      </c>
-      <c r="F114" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="6">
-        <v>4</v>
-      </c>
-      <c r="B115" s="6">
-        <v>24</v>
-      </c>
-      <c r="C115" s="6">
-        <v>1</v>
-      </c>
-      <c r="D115" s="6">
-        <f>D55+11</f>
-        <v>90</v>
-      </c>
-      <c r="E115" s="6">
-        <v>3</v>
-      </c>
-      <c r="F115" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="6">
-        <v>4</v>
-      </c>
-      <c r="B116" s="6">
-        <v>25</v>
-      </c>
-      <c r="C116" s="6">
-        <v>1</v>
-      </c>
-      <c r="D116" s="6">
-        <f>D56+12</f>
-        <v>94</v>
-      </c>
-      <c r="E116" s="6">
-        <v>4</v>
-      </c>
-      <c r="F116" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="6">
-        <v>4</v>
-      </c>
-      <c r="B117" s="6">
-        <v>26</v>
-      </c>
-      <c r="C117" s="6">
-        <v>1</v>
-      </c>
-      <c r="D117" s="6">
-        <f>D57+13</f>
-        <v>98</v>
-      </c>
-      <c r="E117" s="6">
-        <v>5</v>
-      </c>
-      <c r="F117" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="6">
-        <v>4</v>
-      </c>
-      <c r="B118" s="6">
-        <v>27</v>
-      </c>
-      <c r="C118" s="6">
-        <v>1</v>
-      </c>
-      <c r="D118" s="6">
-        <f>D58+14</f>
-        <v>102</v>
-      </c>
-      <c r="E118" s="6">
-        <v>6</v>
-      </c>
-      <c r="F118" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="6">
-        <v>4</v>
-      </c>
-      <c r="B119" s="6">
-        <v>28</v>
-      </c>
-      <c r="C119" s="6">
-        <v>1</v>
-      </c>
-      <c r="D119" s="6">
-        <f>D59+15</f>
-        <v>106</v>
-      </c>
-      <c r="E119" s="6">
-        <v>7</v>
-      </c>
-      <c r="F119" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="6">
-        <v>4</v>
-      </c>
-      <c r="B120" s="6">
-        <v>29</v>
-      </c>
-      <c r="C120" s="6">
-        <v>1</v>
-      </c>
-      <c r="D120" s="6">
-        <f>D60+16</f>
-        <v>110</v>
-      </c>
-      <c r="E120" s="6">
-        <v>8</v>
-      </c>
-      <c r="F120" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="6">
-        <v>4</v>
-      </c>
-      <c r="B121" s="6">
-        <v>30</v>
-      </c>
-      <c r="C121" s="6">
-        <v>1</v>
-      </c>
-      <c r="D121" s="6">
-        <f>D61+17</f>
-        <v>114</v>
-      </c>
-      <c r="E121" s="6">
-        <v>9</v>
-      </c>
-      <c r="F121" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="7"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B161" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614FFDD6-16D5-BA47-8A1C-7C7CB4FDA225}">
   <dimension ref="A1:F161"/>
   <sheetViews>
@@ -10400,7 +7708,7 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10409,9 +7717,13 @@
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" customWidth="1"/>
+    <col min="12" max="12" width="54.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10436,8 +7748,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10459,8 +7777,10 @@
       <c r="G2" s="8">
         <v>42005</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10482,8 +7802,10 @@
       <c r="G3" s="8">
         <v>42036</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10505,8 +7827,10 @@
       <c r="G4" s="8">
         <v>42064</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -10528,8 +7852,10 @@
       <c r="G5" s="8">
         <v>42095</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -10551,8 +7877,10 @@
       <c r="G6" s="8">
         <v>42125</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -10574,8 +7902,10 @@
       <c r="G7" s="8">
         <v>42156</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -10597,8 +7927,10 @@
       <c r="G8" s="8">
         <v>42186</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -10620,8 +7952,10 @@
       <c r="G9" s="8">
         <v>42217</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -10643,8 +7977,10 @@
       <c r="G10" s="8">
         <v>42248</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -10666,8 +8002,10 @@
       <c r="G11" s="8">
         <v>42278</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -10689,8 +8027,10 @@
       <c r="G12" s="8">
         <v>42309</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -10712,8 +8052,10 @@
       <c r="G13" s="8">
         <v>42339</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -10735,8 +8077,10 @@
       <c r="G14" s="8">
         <v>42370</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -10758,8 +8102,10 @@
       <c r="G15" s="8">
         <v>42401</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -10781,8 +8127,10 @@
       <c r="G16" s="8">
         <v>42430</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -10804,8 +8152,10 @@
       <c r="G17" s="8">
         <v>42461</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -10827,8 +8177,10 @@
       <c r="G18" s="8">
         <v>42491</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -10850,8 +8202,10 @@
       <c r="G19" s="8">
         <v>42522</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -10873,8 +8227,10 @@
       <c r="G20" s="8">
         <v>42552</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -10896,8 +8252,10 @@
       <c r="G21" s="8">
         <v>42583</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -10920,8 +8278,10 @@
       <c r="G22" s="8">
         <v>42005</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -10944,8 +8304,10 @@
       <c r="G23" s="8">
         <v>42036</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -10968,8 +8330,10 @@
       <c r="G24" s="8">
         <v>42064</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -10992,8 +8356,10 @@
       <c r="G25" s="8">
         <v>42095</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -11016,8 +8382,10 @@
       <c r="G26" s="8">
         <v>42125</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -11040,8 +8408,10 @@
       <c r="G27" s="8">
         <v>42156</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -11064,8 +8434,10 @@
       <c r="G28" s="8">
         <v>42186</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -11088,8 +8460,10 @@
       <c r="G29" s="8">
         <v>42217</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -11112,8 +8486,10 @@
       <c r="G30" s="8">
         <v>42248</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -11136,8 +8512,10 @@
       <c r="G31" s="8">
         <v>42278</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -11160,6 +8538,8 @@
       <c r="G32" s="8">
         <v>42309</v>
       </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -11184,6 +8564,8 @@
       <c r="G33" s="8">
         <v>42339</v>
       </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -11208,6 +8590,8 @@
       <c r="G34" s="8">
         <v>42370</v>
       </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
@@ -11232,6 +8616,8 @@
       <c r="G35" s="8">
         <v>42401</v>
       </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
@@ -11256,6 +8642,8 @@
       <c r="G36" s="8">
         <v>42430</v>
       </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -11280,6 +8668,8 @@
       <c r="G37" s="8">
         <v>42461</v>
       </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
@@ -11304,6 +8694,8 @@
       <c r="G38" s="8">
         <v>42491</v>
       </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -11328,6 +8720,8 @@
       <c r="G39" s="8">
         <v>42522</v>
       </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -11352,8 +8746,8 @@
       <c r="G40" s="8">
         <v>42552</v>
       </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -11378,8 +8772,8 @@
       <c r="G41" s="8">
         <v>42583</v>
       </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -11407,8 +8801,8 @@
       <c r="H42" s="8">
         <v>42125</v>
       </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -11436,8 +8830,8 @@
       <c r="H43" s="8">
         <v>42125</v>
       </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -11465,8 +8859,8 @@
       <c r="H44" s="8">
         <v>42125</v>
       </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -11494,8 +8888,8 @@
       <c r="H45" s="8">
         <v>42125</v>
       </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -11523,8 +8917,14 @@
       <c r="H46" s="8">
         <v>42125</v>
       </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="I46" s="9">
+        <f>D45+3</f>
+        <v>24</v>
+      </c>
+      <c r="J46" s="9">
+        <f>D46-I46</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -11552,8 +8952,14 @@
       <c r="H47" s="8">
         <v>42125</v>
       </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="I47" s="9">
+        <f>I46+3</f>
+        <v>27</v>
+      </c>
+      <c r="J47" s="9">
+        <f t="shared" ref="J47:J60" si="2">D47-I47</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
@@ -11581,8 +8987,14 @@
       <c r="H48" s="8">
         <v>42125</v>
       </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="I48" s="9">
+        <f t="shared" ref="I48:I61" si="3">I47+3</f>
+        <v>30</v>
+      </c>
+      <c r="J48" s="9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
@@ -11610,8 +9022,14 @@
       <c r="H49" s="8">
         <v>42125</v>
       </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="I49" s="9">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="J49" s="9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
@@ -11639,8 +9057,14 @@
       <c r="H50" s="8">
         <v>42125</v>
       </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="I50" s="9">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="J50" s="9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
@@ -11668,8 +9092,14 @@
       <c r="H51" s="8">
         <v>42125</v>
       </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="I51" s="9">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="J51" s="9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
@@ -11697,8 +9127,14 @@
       <c r="H52" s="8">
         <v>42125</v>
       </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="I52" s="9">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="J52" s="9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
@@ -11726,8 +9162,14 @@
       <c r="H53" s="8">
         <v>42125</v>
       </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="I53" s="9">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="J53" s="9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
@@ -11755,8 +9197,14 @@
       <c r="H54" s="8">
         <v>42125</v>
       </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="I54" s="9">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="J54" s="9">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
@@ -11784,8 +9232,14 @@
       <c r="H55" s="8">
         <v>42125</v>
       </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="I55" s="9">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="J55" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
@@ -11813,8 +9267,14 @@
       <c r="H56" s="8">
         <v>42125</v>
       </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="I56" s="9">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="J56" s="9">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
@@ -11842,8 +9302,14 @@
       <c r="H57" s="8">
         <v>42125</v>
       </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="I57" s="9">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="J57" s="9">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
@@ -11871,8 +9337,14 @@
       <c r="H58" s="8">
         <v>42125</v>
       </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="I58" s="9">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="J58" s="9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
@@ -11900,8 +9372,14 @@
       <c r="H59" s="8">
         <v>42125</v>
       </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="I59" s="9">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="J59" s="9">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
@@ -11929,8 +9407,14 @@
       <c r="H60" s="8">
         <v>42125</v>
       </c>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="I60" s="9">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="J60" s="9">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
@@ -11958,8 +9442,14 @@
       <c r="H61" s="8">
         <v>42125</v>
       </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="I61" s="9">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="J61" s="9">
+        <f>D61-I61</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -11987,8 +9477,8 @@
       <c r="H62" s="8">
         <v>42339</v>
       </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
@@ -12001,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <f t="shared" ref="D63:D72" si="2">D23+8</f>
+        <f t="shared" ref="D63:D72" si="4">D23+8</f>
         <v>21</v>
       </c>
       <c r="E63">
@@ -12016,8 +9506,8 @@
       <c r="H63" s="8">
         <v>42339</v>
       </c>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
@@ -12030,7 +9520,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="E64">
@@ -12045,8 +9535,8 @@
       <c r="H64" s="8">
         <v>42339</v>
       </c>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
@@ -12059,7 +9549,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="E65">
@@ -12074,8 +9564,8 @@
       <c r="H65" s="8">
         <v>42339</v>
       </c>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
@@ -12088,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="E66">
@@ -12103,8 +9593,8 @@
       <c r="H66" s="8">
         <v>42339</v>
       </c>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
@@ -12117,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="E67">
@@ -12132,8 +9622,8 @@
       <c r="H67" s="8">
         <v>42339</v>
       </c>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
@@ -12146,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="E68">
@@ -12161,8 +9651,8 @@
       <c r="H68" s="8">
         <v>42339</v>
       </c>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
@@ -12175,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="E69">
@@ -12190,8 +9680,8 @@
       <c r="H69" s="8">
         <v>42339</v>
       </c>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
@@ -12204,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="E70">
@@ -12219,8 +9709,8 @@
       <c r="H70" s="8">
         <v>42339</v>
       </c>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
@@ -12233,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="E71">
@@ -12248,8 +9738,8 @@
       <c r="H71" s="8">
         <v>42339</v>
       </c>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
@@ -12262,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="E72">
@@ -12277,8 +9767,8 @@
       <c r="H72" s="8">
         <v>42339</v>
       </c>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
@@ -12306,8 +9796,14 @@
       <c r="H73" s="8">
         <v>42339</v>
       </c>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="I73" s="9">
+        <f>D72+3</f>
+        <v>51</v>
+      </c>
+      <c r="J73" s="9">
+        <f>D73-I73</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
@@ -12335,8 +9831,14 @@
       <c r="H74" s="8">
         <v>42339</v>
       </c>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="I74" s="9">
+        <f>I73+3</f>
+        <v>54</v>
+      </c>
+      <c r="J74" s="9">
+        <f t="shared" ref="J74:J81" si="5">D74-I74</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
@@ -12364,8 +9866,14 @@
       <c r="H75" s="8">
         <v>42339</v>
       </c>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="I75" s="9">
+        <f t="shared" ref="I75:I81" si="6">I74+3</f>
+        <v>57</v>
+      </c>
+      <c r="J75" s="9">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
@@ -12393,6 +9901,14 @@
       <c r="H76" s="8">
         <v>42339</v>
       </c>
+      <c r="I76" s="9">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="J76" s="9">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
@@ -12420,6 +9936,14 @@
       <c r="H77" s="8">
         <v>42339</v>
       </c>
+      <c r="I77" s="9">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="J77" s="9">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
@@ -12447,6 +9971,14 @@
       <c r="H78" s="8">
         <v>42339</v>
       </c>
+      <c r="I78" s="9">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="J78" s="9">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -12474,6 +10006,14 @@
       <c r="H79" s="8">
         <v>42339</v>
       </c>
+      <c r="I79" s="9">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="J79" s="9">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
@@ -12501,8 +10041,16 @@
       <c r="H80" s="8">
         <v>42339</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" s="9">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="J80" s="9">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4</v>
       </c>
@@ -12528,9 +10076,18 @@
       <c r="H81" s="8">
         <v>42339</v>
       </c>
+      <c r="I81" s="9">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="J81" s="9">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12539,7 +10096,7 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="K10" sqref="K10:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12548,9 +10105,11 @@
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12575,8 +10134,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12598,8 +10163,10 @@
       <c r="G2" s="8">
         <v>42005</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -12621,8 +10188,10 @@
       <c r="G3" s="8">
         <v>42036</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -12644,8 +10213,10 @@
       <c r="G4" s="8">
         <v>42064</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -12667,8 +10238,10 @@
       <c r="G5" s="8">
         <v>42095</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -12690,8 +10263,10 @@
       <c r="G6" s="8">
         <v>42125</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -12713,8 +10288,10 @@
       <c r="G7" s="8">
         <v>42156</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -12736,8 +10313,10 @@
       <c r="G8" s="8">
         <v>42186</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -12759,8 +10338,10 @@
       <c r="G9" s="8">
         <v>42217</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -12782,8 +10363,10 @@
       <c r="G10" s="8">
         <v>42248</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -12805,8 +10388,10 @@
       <c r="G11" s="8">
         <v>42278</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -12828,8 +10413,10 @@
       <c r="G12" s="8">
         <v>42309</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -12851,8 +10438,10 @@
       <c r="G13" s="8">
         <v>42339</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -12874,8 +10463,10 @@
       <c r="G14" s="8">
         <v>42370</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -12897,8 +10488,10 @@
       <c r="G15" s="8">
         <v>42401</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -12920,8 +10513,10 @@
       <c r="G16" s="8">
         <v>42430</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -12943,8 +10538,10 @@
       <c r="G17" s="8">
         <v>42461</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -12966,8 +10563,10 @@
       <c r="G18" s="8">
         <v>42491</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -12989,8 +10588,10 @@
       <c r="G19" s="8">
         <v>42522</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -13012,8 +10613,10 @@
       <c r="G20" s="8">
         <v>42552</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -13035,8 +10638,10 @@
       <c r="G21" s="8">
         <v>42583</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -13059,8 +10664,10 @@
       <c r="G22" s="8">
         <v>42005</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -13083,8 +10690,10 @@
       <c r="G23" s="8">
         <v>42036</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -13107,8 +10716,10 @@
       <c r="G24" s="8">
         <v>42064</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -13131,8 +10742,10 @@
       <c r="G25" s="8">
         <v>42095</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -13155,8 +10768,10 @@
       <c r="G26" s="8">
         <v>42125</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -13179,8 +10794,10 @@
       <c r="G27" s="8">
         <v>42156</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -13203,8 +10820,10 @@
       <c r="G28" s="8">
         <v>42186</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -13227,8 +10846,10 @@
       <c r="G29" s="8">
         <v>42217</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -13251,8 +10872,10 @@
       <c r="G30" s="8">
         <v>42248</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -13275,8 +10898,10 @@
       <c r="G31" s="8">
         <v>42278</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -13299,6 +10924,8 @@
       <c r="G32" s="8">
         <v>42309</v>
       </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -13323,6 +10950,8 @@
       <c r="G33" s="8">
         <v>42339</v>
       </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -13347,6 +10976,8 @@
       <c r="G34" s="8">
         <v>42370</v>
       </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
@@ -13371,6 +11002,8 @@
       <c r="G35" s="8">
         <v>42401</v>
       </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
@@ -13395,6 +11028,8 @@
       <c r="G36" s="8">
         <v>42430</v>
       </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -13419,6 +11054,8 @@
       <c r="G37" s="8">
         <v>42461</v>
       </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
@@ -13443,6 +11080,8 @@
       <c r="G38" s="8">
         <v>42491</v>
       </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -13467,6 +11106,8 @@
       <c r="G39" s="8">
         <v>42522</v>
       </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -13491,8 +11132,8 @@
       <c r="G40" s="8">
         <v>42552</v>
       </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -13517,8 +11158,8 @@
       <c r="G41" s="8">
         <v>42583</v>
       </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -13546,8 +11187,8 @@
       <c r="H42" s="8">
         <v>42125</v>
       </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -13575,8 +11216,8 @@
       <c r="H43" s="8">
         <v>42125</v>
       </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -13604,8 +11245,8 @@
       <c r="H44" s="8">
         <v>42125</v>
       </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -13633,8 +11274,8 @@
       <c r="H45" s="8">
         <v>42125</v>
       </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -13662,8 +11303,14 @@
       <c r="H46" s="8">
         <v>42125</v>
       </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="I46" s="9">
+        <f>D45+3</f>
+        <v>24</v>
+      </c>
+      <c r="J46" s="9">
+        <f>D46-I46</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -13691,8 +11338,14 @@
       <c r="H47" s="8">
         <v>42125</v>
       </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="I47" s="9">
+        <f>I46+3</f>
+        <v>27</v>
+      </c>
+      <c r="J47" s="9">
+        <f t="shared" ref="J47:J61" si="2">D47-I47</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
@@ -13720,8 +11373,14 @@
       <c r="H48" s="8">
         <v>42125</v>
       </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="I48" s="9">
+        <f t="shared" ref="I48:I61" si="3">I47+3</f>
+        <v>30</v>
+      </c>
+      <c r="J48" s="9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
@@ -13749,8 +11408,14 @@
       <c r="H49" s="8">
         <v>42125</v>
       </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="I49" s="9">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="J49" s="9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
@@ -13778,8 +11443,14 @@
       <c r="H50" s="8">
         <v>42125</v>
       </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="I50" s="9">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="J50" s="9">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
@@ -13807,8 +11478,14 @@
       <c r="H51" s="8">
         <v>42125</v>
       </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="I51" s="9">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="J51" s="9">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
@@ -13836,8 +11513,14 @@
       <c r="H52" s="8">
         <v>42125</v>
       </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="I52" s="9">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="J52" s="9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
@@ -13865,8 +11548,14 @@
       <c r="H53" s="8">
         <v>42125</v>
       </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="I53" s="9">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="J53" s="9">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
@@ -13894,8 +11583,14 @@
       <c r="H54" s="8">
         <v>42125</v>
       </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="I54" s="9">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="J54" s="9">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
@@ -13923,8 +11618,14 @@
       <c r="H55" s="8">
         <v>42125</v>
       </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="I55" s="9">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="J55" s="9">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
@@ -13952,8 +11653,14 @@
       <c r="H56" s="8">
         <v>42125</v>
       </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="I56" s="9">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="J56" s="9">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
@@ -13981,8 +11688,14 @@
       <c r="H57" s="8">
         <v>42125</v>
       </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="I57" s="9">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="J57" s="9">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
@@ -14010,8 +11723,14 @@
       <c r="H58" s="8">
         <v>42125</v>
       </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="I58" s="9">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="J58" s="9">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
@@ -14039,8 +11758,14 @@
       <c r="H59" s="8">
         <v>42125</v>
       </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="I59" s="9">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="J59" s="9">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
@@ -14068,8 +11793,14 @@
       <c r="H60" s="8">
         <v>42125</v>
       </c>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="I60" s="9">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="J60" s="9">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
@@ -14097,8 +11828,14 @@
       <c r="H61" s="8">
         <v>42125</v>
       </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="I61" s="9">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="J61" s="9">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -14126,8 +11863,8 @@
       <c r="H62" s="8">
         <v>42339</v>
       </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
@@ -14140,7 +11877,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <f t="shared" ref="D63:D72" si="2">D23+8</f>
+        <f t="shared" ref="D63:D72" si="4">D23+8</f>
         <v>21</v>
       </c>
       <c r="E63">
@@ -14155,8 +11892,8 @@
       <c r="H63" s="8">
         <v>42339</v>
       </c>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
@@ -14169,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="E64">
@@ -14184,8 +11921,8 @@
       <c r="H64" s="8">
         <v>42339</v>
       </c>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
@@ -14198,7 +11935,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="E65">
@@ -14213,8 +11950,8 @@
       <c r="H65" s="8">
         <v>42339</v>
       </c>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
@@ -14227,7 +11964,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="E66">
@@ -14242,8 +11979,8 @@
       <c r="H66" s="8">
         <v>42339</v>
       </c>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
@@ -14256,7 +11993,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="E67">
@@ -14271,8 +12008,8 @@
       <c r="H67" s="8">
         <v>42339</v>
       </c>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
@@ -14285,7 +12022,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="E68">
@@ -14300,8 +12037,8 @@
       <c r="H68" s="8">
         <v>42339</v>
       </c>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
@@ -14314,7 +12051,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="E69">
@@ -14329,8 +12066,8 @@
       <c r="H69" s="8">
         <v>42339</v>
       </c>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
@@ -14343,7 +12080,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="E70">
@@ -14358,8 +12095,8 @@
       <c r="H70" s="8">
         <v>42339</v>
       </c>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
@@ -14372,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="E71">
@@ -14387,8 +12124,8 @@
       <c r="H71" s="8">
         <v>42339</v>
       </c>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
@@ -14401,7 +12138,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="E72">
@@ -14416,8 +12153,8 @@
       <c r="H72" s="8">
         <v>42339</v>
       </c>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
@@ -14445,8 +12182,14 @@
       <c r="H73" s="8">
         <v>42339</v>
       </c>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="I73" s="9">
+        <f>D72+3</f>
+        <v>51</v>
+      </c>
+      <c r="J73" s="9">
+        <f>D73-I73</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
@@ -14474,8 +12217,14 @@
       <c r="H74" s="8">
         <v>42339</v>
       </c>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="I74" s="9">
+        <f>I73+3</f>
+        <v>54</v>
+      </c>
+      <c r="J74" s="9">
+        <f t="shared" ref="J74:J81" si="5">D74-I74</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
@@ -14503,8 +12252,14 @@
       <c r="H75" s="8">
         <v>42339</v>
       </c>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="I75" s="9">
+        <f t="shared" ref="I75:I81" si="6">I74+3</f>
+        <v>57</v>
+      </c>
+      <c r="J75" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
@@ -14532,6 +12287,14 @@
       <c r="H76" s="8">
         <v>42339</v>
       </c>
+      <c r="I76" s="9">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="J76" s="9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
@@ -14559,6 +12322,14 @@
       <c r="H77" s="8">
         <v>42339</v>
       </c>
+      <c r="I77" s="9">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="J77" s="9">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
@@ -14586,6 +12357,14 @@
       <c r="H78" s="8">
         <v>42339</v>
       </c>
+      <c r="I78" s="9">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="J78" s="9">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -14613,6 +12392,14 @@
       <c r="H79" s="8">
         <v>42339</v>
       </c>
+      <c r="I79" s="9">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="J79" s="9">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
@@ -14640,8 +12427,16 @@
       <c r="H80" s="8">
         <v>42339</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" s="9">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="J80" s="9">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4</v>
       </c>
@@ -14667,8 +12462,17 @@
       <c r="H81" s="8">
         <v>42339</v>
       </c>
+      <c r="I81" s="9">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="J81" s="9">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/scenarios.xlsx
+++ b/data/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corinneriddell/Documents/repos/Guide-to-DID-estimators/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C8933B-F90F-F241-94CF-4572D9AFE903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F973FD3C-53A3-364D-A11D-EE63A87A1899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45480" yWindow="1400" windowWidth="26860" windowHeight="18780" activeTab="8" xr2:uid="{3A84A3DE-CD8F-5C4B-BB69-5AB88BC02DD1}"/>
+    <workbookView xWindow="-45480" yWindow="1400" windowWidth="26860" windowHeight="18780" activeTab="10" xr2:uid="{3A84A3DE-CD8F-5C4B-BB69-5AB88BC02DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="scen1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="scen4" sheetId="6" r:id="rId6"/>
     <sheet name="scen5" sheetId="7" r:id="rId7"/>
     <sheet name="scen6" sheetId="9" r:id="rId8"/>
-    <sheet name="scen9" sheetId="13" r:id="rId9"/>
-    <sheet name="scen7" sheetId="10" r:id="rId10"/>
-    <sheet name="scen8" sheetId="12" r:id="rId11"/>
+    <sheet name="scen7" sheetId="13" r:id="rId9"/>
+    <sheet name="scen8" sheetId="10" r:id="rId10"/>
+    <sheet name="scen9" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32EF42-1665-1742-8ED8-18BCC709F02B}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3169,7 +3169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614FFDD6-16D5-BA47-8A1C-7C7CB4FDA225}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -12553,10 +12553,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8D1594-9425-564C-987A-9BFC085D0B14}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13782,7 +13782,7 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <f>D46+3</f>
+        <f t="shared" ref="D47:D61" si="2">D46+3</f>
         <v>33</v>
       </c>
       <c r="E47">
@@ -13802,7 +13802,7 @@
         <v>27</v>
       </c>
       <c r="J47" s="7">
-        <f t="shared" ref="J47:J60" si="2">D47-I47</f>
+        <f t="shared" ref="J47:J60" si="3">D47-I47</f>
         <v>6</v>
       </c>
     </row>
@@ -13817,7 +13817,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <f>D47+3</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="E48">
@@ -13833,11 +13833,11 @@
         <v>42125</v>
       </c>
       <c r="I48" s="7">
-        <f t="shared" ref="I48:I61" si="3">I47+3</f>
+        <f t="shared" ref="I48:I61" si="4">I47+3</f>
         <v>30</v>
       </c>
       <c r="J48" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -13852,7 +13852,7 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <f>D48+3</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="E49">
@@ -13868,11 +13868,11 @@
         <v>42125</v>
       </c>
       <c r="I49" s="7">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="J49" s="7">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="J49" s="7">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -13887,7 +13887,7 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <f>D49+3</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="E50">
@@ -13903,11 +13903,11 @@
         <v>42125</v>
       </c>
       <c r="I50" s="7">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="J50" s="7">
         <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="J50" s="7">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -13922,7 +13922,7 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <f>D50+3</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="E51">
@@ -13938,11 +13938,11 @@
         <v>42125</v>
       </c>
       <c r="I51" s="7">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="J51" s="7">
         <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="J51" s="7">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -13957,7 +13957,7 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <f>D51+3</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="E52">
@@ -13973,11 +13973,11 @@
         <v>42125</v>
       </c>
       <c r="I52" s="7">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="J52" s="7">
         <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="J52" s="7">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -13992,7 +13992,7 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <f>D52+3</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="E53">
@@ -14008,11 +14008,11 @@
         <v>42125</v>
       </c>
       <c r="I53" s="7">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="J53" s="7">
         <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="J53" s="7">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -14027,7 +14027,7 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <f>D53+3</f>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="E54">
@@ -14043,11 +14043,11 @@
         <v>42125</v>
       </c>
       <c r="I54" s="7">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="J54" s="7">
         <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="J54" s="7">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -14062,7 +14062,7 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <f>D54+3</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="E55">
@@ -14078,11 +14078,11 @@
         <v>42125</v>
       </c>
       <c r="I55" s="7">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="J55" s="7">
         <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="J55" s="7">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <f>D55+3</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="E56">
@@ -14113,11 +14113,11 @@
         <v>42125</v>
       </c>
       <c r="I56" s="7">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="J56" s="7">
         <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="J56" s="7">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -14132,7 +14132,7 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <f>D56+3</f>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="E57">
@@ -14148,11 +14148,11 @@
         <v>42125</v>
       </c>
       <c r="I57" s="7">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="J57" s="7">
         <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-      <c r="J57" s="7">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -14167,7 +14167,7 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <f>D57+3</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="E58">
@@ -14183,11 +14183,11 @@
         <v>42125</v>
       </c>
       <c r="I58" s="7">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="J58" s="7">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="J58" s="7">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -14202,7 +14202,7 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <f>D58+3</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="E59">
@@ -14218,11 +14218,11 @@
         <v>42125</v>
       </c>
       <c r="I59" s="7">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="J59" s="7">
         <f t="shared" si="3"/>
-        <v>63</v>
-      </c>
-      <c r="J59" s="7">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -14237,7 +14237,7 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <f>D59+3</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="E60">
@@ -14253,11 +14253,11 @@
         <v>42125</v>
       </c>
       <c r="I60" s="7">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="J60" s="7">
         <f t="shared" si="3"/>
-        <v>66</v>
-      </c>
-      <c r="J60" s="7">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -14272,7 +14272,7 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <f>D60+3</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="E61">
@@ -14288,7 +14288,7 @@
         <v>42125</v>
       </c>
       <c r="I61" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="J61" s="7">
@@ -14336,7 +14336,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <f t="shared" ref="D63:D72" si="4">D23+8</f>
+        <f t="shared" ref="D63:D72" si="5">D23+8</f>
         <v>21</v>
       </c>
       <c r="E63">
@@ -14365,7 +14365,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="E64">
@@ -14383,7 +14383,7 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4</v>
       </c>
@@ -14394,7 +14394,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="E65">
@@ -14412,7 +14412,7 @@
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="E66">
@@ -14441,7 +14441,7 @@
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="E67">
@@ -14470,7 +14470,7 @@
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="E68">
@@ -14499,7 +14499,7 @@
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4</v>
       </c>
@@ -14510,7 +14510,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="E69">
@@ -14528,7 +14528,7 @@
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4</v>
       </c>
@@ -14539,7 +14539,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="E70">
@@ -14557,7 +14557,7 @@
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="E71">
@@ -14586,7 +14586,7 @@
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="E72">
@@ -14615,7 +14615,7 @@
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <f>D33+12</f>
+        <f t="shared" ref="D73:D81" si="6">D33+12</f>
         <v>55</v>
       </c>
       <c r="E73">
@@ -14649,8 +14649,16 @@
         <f>D73-I73</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L73">
+        <f>(2*5*9 + 1*6*7)/25</f>
+        <v>5.28</v>
+      </c>
+      <c r="M73">
+        <f>(5*9 + 6*7)/16</f>
+        <v>5.4375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>4</v>
       </c>
@@ -14661,7 +14669,7 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <f>D34+12</f>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="E74">
@@ -14681,11 +14689,11 @@
         <v>54</v>
       </c>
       <c r="J74" s="7">
-        <f t="shared" ref="J74:J81" si="5">D74-I74</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J74:J81" si="7">D74-I74</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4</v>
       </c>
@@ -14696,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <f>D35+12</f>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="E75">
@@ -14712,15 +14720,15 @@
         <v>42339</v>
       </c>
       <c r="I75" s="7">
-        <f t="shared" ref="I75:I81" si="6">I74+3</f>
+        <f t="shared" ref="I75:I81" si="8">I74+3</f>
         <v>57</v>
       </c>
       <c r="J75" s="7">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4</v>
       </c>
@@ -14731,7 +14739,7 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <f>D36+12</f>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="E76">
@@ -14747,15 +14755,15 @@
         <v>42339</v>
       </c>
       <c r="I76" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="J76" s="7">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4</v>
       </c>
@@ -14766,7 +14774,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <f>D37+12</f>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="E77">
@@ -14782,15 +14790,15 @@
         <v>42339</v>
       </c>
       <c r="I77" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
       <c r="J77" s="7">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4</v>
       </c>
@@ -14801,7 +14809,7 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <f>D38+12</f>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="E78">
@@ -14817,15 +14825,15 @@
         <v>42339</v>
       </c>
       <c r="I78" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="J78" s="7">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4</v>
       </c>
@@ -14836,7 +14844,7 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <f>D39+12</f>
+        <f t="shared" si="6"/>
         <v>73</v>
       </c>
       <c r="E79">
@@ -14852,15 +14860,15 @@
         <v>42339</v>
       </c>
       <c r="I79" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>69</v>
       </c>
       <c r="J79" s="7">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4</v>
       </c>
@@ -14871,7 +14879,7 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <f>D40+12</f>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
       <c r="E80">
@@ -14887,11 +14895,11 @@
         <v>42339</v>
       </c>
       <c r="I80" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="J80" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -14906,7 +14914,7 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <f>D41+12</f>
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
       <c r="E81">
@@ -14922,11 +14930,11 @@
         <v>42339</v>
       </c>
       <c r="I81" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
       <c r="J81" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
